--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3913683.850064704</v>
+        <v>3913683.850064703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1160239.347308867</v>
+        <v>1211610.243745275</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7553324.360385051</v>
+        <v>7553324.36038505</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>195.0001439781025</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>140.206743329501</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.790440613649858</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.790440613649858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>8.146839836414506</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.49677716875706</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>114.9503771951927</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>121.0882502601224</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>170.5032824339724</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>15.09496956932372</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>171.8739371844418</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.38614710919123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>28.79214306463551</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>171.8317558804188</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>224.9333101817126</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,13 +2530,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>116.0167733849181</v>
+        <v>199.5828474886578</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206835</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3004,7 +3004,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>143.3158222056524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>93.48193440482363</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065128</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>143.0671095775718</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.7955476484028</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>4.46707130753606</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>170.2615837810086</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>67.80113831221719</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>176.9527187969212</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>127.7178027211458</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.73448241073316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>1834.613306652565</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>1465.650789712153</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1177.981643776797</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>766.99573898719</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>349.0319308853768</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="3">
@@ -4398,28 +4398,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4519,16 +4519,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
         <v>200.8329293182748</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2688.919959870329</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2512.7424721845</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2512.7424721845</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2258.980686822591</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>1554.45204121794</v>
       </c>
       <c r="Y5" t="n">
-        <v>2494.20718194981</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>379.6592427198135</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>379.6592427198135</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>477.9194859165264</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>567.286643657864</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>567.286643657864</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2626.872957539298</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2373.111172177389</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2373.111172177389</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,13 +4890,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>525.1020275000139</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>525.1020275000139</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541693</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541693</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9203575519559</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>506.3718661188911</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1120.26893587578</v>
+        <v>685.8017426832648</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.604255405482</v>
+        <v>993.1218759632263</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,19 +5267,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>264.0657286834809</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>877.9627984403695</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.298117970071</v>
+        <v>981.7486957371225</v>
       </c>
       <c r="N15" t="n">
-        <v>1542.818773607689</v>
+        <v>1311.611323401155</v>
       </c>
       <c r="O15" t="n">
-        <v>2212.282534910349</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2394.9260125237</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1325.348840375661</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1101.563425165167</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>812.4347863787252</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>812.4347863787252</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>812.4347863787252</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,10 +5501,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L18" t="n">
-        <v>508.1073603047985</v>
+        <v>2596.98261417041</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.946494673699</v>
+        <v>3365.350760562872</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>3365.350760562872</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>4034.814521865531</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>232.3332043549318</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>479.0983322613959</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727022</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>452.5377573864724</v>
+        <v>685.8017426832646</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.905903778934</v>
+        <v>993.1218759632262</v>
       </c>
       <c r="N24" t="n">
-        <v>2025.317482043085</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O24" t="n">
-        <v>2274.070896127047</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2456.714373740398</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>192.33306393444</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>192.33306393444</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.24660305754</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851653</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814692</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619128</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>877.9627984403695</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1646.330944832831</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>2450.742523096982</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2450.742523096982</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>505.7582697485844</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>505.7582697485844</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362487</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.652507134962</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.968018929075</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W28" t="n">
-        <v>726.5508488921146</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X28" t="n">
-        <v>726.5508488921146</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y28" t="n">
-        <v>505.7582697485844</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,10 +6446,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,22 +6458,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>138.7081686256435</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>752.6052383825321</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.973384774994</v>
+        <v>1317.966583862618</v>
       </c>
       <c r="N30" t="n">
-        <v>2122.782055165496</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="O30" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.149147719352</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.02050893291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>3893.336020727023</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>3603.918850690063</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3603.918850690063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6689,61 +6689,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704856</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="M33" t="n">
-        <v>1002.792923427374</v>
+        <v>3219.029763375277</v>
       </c>
       <c r="N33" t="n">
-        <v>1347.313579064992</v>
+        <v>3786.061107781568</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.777340367652</v>
+        <v>4034.81452186553</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601277</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916991</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>510.2366179610307</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4741.167820987512</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4452.03918220107</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>4197.354693995183</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>3907.937523958222</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060205</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.610291292808</v>
+        <v>3525.606699852205</v>
       </c>
       <c r="M36" t="n">
-        <v>1426.94561082251</v>
+        <v>4293.974846244666</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.466266460128</v>
+        <v>4293.974846244666</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>4542.728260328628</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>4747.750741110838</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>988.7065213774116</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>819.7703384495047</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1306.193495155475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1306.193495155475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,22 +7172,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>177.1795914149472</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>326.249275617007</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>940.1463453738957</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>2474.454647241204</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2474.454647241204</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2474.454647241204</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324574</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>415.8104215925219</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028559</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N42" t="n">
-        <v>1890.372576454149</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>3888.981946387242</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3888.981946387242</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T43" t="n">
-        <v>1320.176150561012</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U43" t="n">
-        <v>1031.04751177457</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V43" t="n">
-        <v>776.3630235686835</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="W43" t="n">
-        <v>486.9458535317228</v>
+        <v>4406.250074723958</v>
       </c>
       <c r="X43" t="n">
-        <v>486.9458535317228</v>
+        <v>4178.260523825941</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>3957.467944682411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7646,19 +7646,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7731,22 +7731,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1738.457251193969</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1738.457251193969</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2407.921012496628</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>4660.934562929845</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>4371.805924143403</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>4117.121435937516</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W46" t="n">
-        <v>3827.704265900556</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>3599.714715002538</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>150.0424406143226</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>208.4667329368937</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,19 +10674,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>26.2332620668998</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>38.8600230194987</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>62.61207644213175</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>196.9175123244016</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>26.08905410318448</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0.7763452073245105</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X22" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45066026879972</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>170.2205790136592</v>
+        <v>86.65450490991958</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.26883114644244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>51.93911361810761</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,10 +25126,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518765</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>5.548363440640571</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>7.125262335200489</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>282.0559270290549</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>48.32306957108619</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>112.0308418697201</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>44.59484226146802</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>124.4198406026822</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.8501709413616</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.760514761</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
       <c r="I2" t="n">
+        <v>723403.7605147609</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="K2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="J2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147614</v>
-      </c>
       <c r="L2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.760514761</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147609</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759211</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758763</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.793690575843</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411075</v>
+        <v>-52422.45933411093</v>
       </c>
       <c r="C6" t="n">
+        <v>537545.4198804337</v>
+      </c>
+      <c r="D6" t="n">
         <v>537545.4198804338</v>
       </c>
-      <c r="D6" t="n">
-        <v>537545.4198804339</v>
-      </c>
       <c r="E6" t="n">
-        <v>105468.6043985728</v>
+        <v>105468.6043985724</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.640875469</v>
+        <v>630628.6408754687</v>
       </c>
       <c r="G6" t="n">
+        <v>630628.6408754685</v>
+      </c>
+      <c r="H6" t="n">
         <v>630628.6408754686</v>
       </c>
-      <c r="H6" t="n">
-        <v>630628.640875469</v>
-      </c>
       <c r="I6" t="n">
+        <v>630628.6408754684</v>
+      </c>
+      <c r="J6" t="n">
+        <v>454205.4216828761</v>
+      </c>
+      <c r="K6" t="n">
         <v>630628.6408754688</v>
       </c>
-      <c r="J6" t="n">
-        <v>454205.421682876</v>
-      </c>
-      <c r="K6" t="n">
-        <v>630628.640875469</v>
-      </c>
       <c r="L6" t="n">
-        <v>630628.6408754688</v>
+        <v>630628.6408754684</v>
       </c>
       <c r="M6" t="n">
-        <v>495827.6256416312</v>
+        <v>495827.6256416315</v>
       </c>
       <c r="N6" t="n">
         <v>630628.6408754688</v>
       </c>
       <c r="O6" t="n">
-        <v>630628.6408754688</v>
+        <v>630628.6408754687</v>
       </c>
       <c r="P6" t="n">
-        <v>630628.640875469</v>
+        <v>630628.6408754686</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>159.6828976425805</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>183.7160294348562</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>276.4914336283279</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.7942127384449</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>46.33156273839716</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.7411614872965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>64.88160298674455</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>46.22155199892852</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>236.3727633077391</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>201.3533507883341</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>40.27160176557715</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>147.1985062429036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31142,7 +31142,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31619,7 +31619,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,19 +31838,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>286.6638531320888</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31859,16 +31859,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.8615498374841</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,19 +32312,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>235.6889786885679</v>
       </c>
       <c r="M18" t="n">
-        <v>278.2866816557565</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32333,10 +32333,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32552,16 +32552,16 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>232.4121821352563</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>110.222701848423</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32573,7 +32573,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32786,13 +32786,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>169.7583676638506</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724846</v>
@@ -32804,10 +32804,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.71167780314263</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -33026,7 +33026,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>387.8120847358985</v>
@@ -33038,16 +33038,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>308.5511571912562</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33263,28 +33263,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>259.8868835887721</v>
+        <v>136.4103179062033</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33500,28 +33500,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.7582714835083</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>130.3467374539615</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>372.2624496158187</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33986,16 +33986,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34144,7 +34144,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,22 +34217,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>411.9237651359186</v>
       </c>
       <c r="O42" t="n">
-        <v>357.6470597840834</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34390,7 +34390,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>131.1073731820381</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34466,10 +34466,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>413.2876511703084</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>11.48806083444844</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>490.8304351780018</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>230.9570634873116</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>97.13459890869369</v>
       </c>
       <c r="M18" t="n">
-        <v>601.8577114837381</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>676.2260215178377</v>
@@ -35981,10 +35981,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>94.57074316089731</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>458.2233641086432</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>402.0443331874356</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.8071914529702</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686865</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>174.5767497769259</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>607.8875458489923</v>
+        <v>484.4109801664235</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>572.7589337437286</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>314.8350986795684</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>604.5484151394037</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>114.2462948519739</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>80.77020197440538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37628,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>150.6251092272059</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>280.5820530525853</v>
       </c>
       <c r="O42" t="n">
-        <v>215.050815339639</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>454.6784030100197</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3913683.850064703</v>
+        <v>3989213.519729509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1211610.243745275</v>
+        <v>482279.9336046273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7553324.36038505</v>
+        <v>7553324.360385051</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>195.0001439781025</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>263.3709516818921</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883158</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.790440613649858</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>187.5766315601734</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>150.8020682067238</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.146839836414506</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.9503771951927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>170.5032824339724</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>68.16986319857421</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>171.8739371844418</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>62.87703915779939</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>28.79214306463551</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>171.8317558804188</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>143.3674220664879</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>178.9190041201668</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>224.9333101817126</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>70.8882699471983</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>94.16481274941266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>94.16481274941263</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>217.9854721531862</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>199.5828474886578</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>24.08189070320769</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5.269848553896072</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>93.87916681139909</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>93.48193440482363</v>
+        <v>22.45317346088634</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>143.0671095775718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>53.01915563767676</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>106.4954499794096</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>170.2615837810086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.80113831221719</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>12.51585052271063</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>45.21952718910637</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>127.7178027211458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1834.613306652565</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.650789712153</v>
+        <v>898.349531001435</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>898.349531001435</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4346,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.752638628377</v>
+        <v>1267.312047941847</v>
       </c>
       <c r="Y2" t="n">
-        <v>1834.613306652565</v>
+        <v>1267.312047941847</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,31 +4421,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U4" t="n">
-        <v>718.2396502532528</v>
+        <v>471.403877728658</v>
       </c>
       <c r="V4" t="n">
-        <v>718.2396502532528</v>
+        <v>471.403877728658</v>
       </c>
       <c r="W4" t="n">
-        <v>428.8224802162921</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1097.914903999813</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>686.9289992102051</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2688.919959870329</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2512.7424721845</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2512.7424721845</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2258.980686822591</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1927.91779947902</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1927.91779947902</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.45204121794</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.312709242129</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4637,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165264</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C8" t="n">
-        <v>567.286643657864</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D8" t="n">
-        <v>567.286643657864</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E8" t="n">
-        <v>567.286643657864</v>
+        <v>533.7873342852995</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>122.8014294956919</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4844,10 +4846,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="9">
@@ -4887,7 +4889,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>525.1020275000139</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>525.1020275000139</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545819</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,61 +5032,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="L12" t="n">
-        <v>685.8017426832648</v>
+        <v>368.6712744939928</v>
       </c>
       <c r="M12" t="n">
-        <v>993.1218759632263</v>
+        <v>1137.039420886455</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.533454227377</v>
+        <v>1481.560076524072</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>545.8631874464247</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.408996269827</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>835.2803574833854</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>835.2803574833854</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>545.8631874464247</v>
       </c>
       <c r="X13" t="n">
-        <v>636.6030007360521</v>
+        <v>545.8631874464247</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925219</v>
+        <v>545.8631874464247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,61 +5254,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L15" t="n">
-        <v>674.4285624571609</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M15" t="n">
-        <v>981.7486957371225</v>
+        <v>1031.449480746877</v>
       </c>
       <c r="N15" t="n">
-        <v>1311.611323401155</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.4452354807079</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1325.348840375661</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1101.563425165167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>812.4347863787252</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>812.4347863787252</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>812.4347863787252</v>
+        <v>865.052043842076</v>
       </c>
       <c r="X16" t="n">
-        <v>584.4452354807079</v>
+        <v>637.0624929440587</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.4452354807079</v>
+        <v>416.2699138005286</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="K18" t="n">
-        <v>2500.819361250803</v>
+        <v>2745.388427942955</v>
       </c>
       <c r="L18" t="n">
-        <v>2596.98261417041</v>
+        <v>3359.285497699844</v>
       </c>
       <c r="M18" t="n">
-        <v>3365.350760562872</v>
+        <v>3452.170464241252</v>
       </c>
       <c r="N18" t="n">
-        <v>3365.350760562872</v>
+        <v>3796.69111987887</v>
       </c>
       <c r="O18" t="n">
-        <v>4034.814521865531</v>
+        <v>4045.444533962832</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601278</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383442</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383442</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184324</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="20">
@@ -5738,40 +5740,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>674.4285624571609</v>
+        <v>754.9984739765637</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>4015.784305185132</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>3846.848122257225</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>3775.243809179247</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>4236.576884328662</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>4236.576884328662</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>4015.784305185132</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6071,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L24" t="n">
-        <v>685.8017426832646</v>
+        <v>779.5615433385055</v>
       </c>
       <c r="M24" t="n">
-        <v>993.1218759632262</v>
+        <v>1099.896862868207</v>
       </c>
       <c r="N24" t="n">
-        <v>1797.533454227377</v>
+        <v>1429.75949053224</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.33306393444</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>192.33306393444</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1278.728924948624</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>989.6002861621822</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>989.6002861621822</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324574</v>
+        <v>989.6002861621822</v>
       </c>
       <c r="X25" t="n">
-        <v>192.33306393444</v>
+        <v>761.6107352641649</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.33306393444</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>243.0706902632331</v>
       </c>
       <c r="K27" t="n">
-        <v>264.0657286834809</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L27" t="n">
-        <v>877.9627984403695</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M27" t="n">
-        <v>1646.330944832831</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N27" t="n">
-        <v>2450.742523096982</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>2450.742523096982</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>4208.336137767206</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U28" t="n">
-        <v>762.5369059776569</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V28" t="n">
-        <v>762.5369059776569</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406963</v>
+        <v>4436.325688665223</v>
       </c>
       <c r="X28" t="n">
-        <v>245.130185042679</v>
+        <v>4208.336137767206</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>4208.336137767206</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,10 +6448,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6548,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>549.5984374701561</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M30" t="n">
-        <v>1317.966583862618</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N30" t="n">
-        <v>1797.533454227377</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>827.9306256062542</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>658.9944426783474</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>508.8778032660116</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>360.9647096836185</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>214.0747621857081</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>1009.579090436494</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250802</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095315</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>2911.709630095315</v>
+        <v>779.5615433385053</v>
       </c>
       <c r="M33" t="n">
-        <v>3219.029763375277</v>
+        <v>1099.896862868207</v>
       </c>
       <c r="N33" t="n">
-        <v>3786.061107781568</v>
+        <v>1444.417518505825</v>
       </c>
       <c r="O33" t="n">
-        <v>4034.81452186553</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601277</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916991</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>510.2366179610307</v>
+        <v>3969.364880169634</v>
       </c>
       <c r="C34" t="n">
-        <v>510.2366179610307</v>
+        <v>3800.428697241727</v>
       </c>
       <c r="D34" t="n">
-        <v>510.2366179610307</v>
+        <v>3800.428697241727</v>
       </c>
       <c r="E34" t="n">
-        <v>510.2366179610307</v>
+        <v>3800.428697241727</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="W34" t="n">
-        <v>731.0291971045608</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="X34" t="n">
-        <v>731.0291971045608</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="Y34" t="n">
-        <v>510.2366179610307</v>
+        <v>4151.013344999874</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6962,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3525.606699852205</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>4293.974846244666</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N36" t="n">
-        <v>4293.974846244666</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O36" t="n">
-        <v>4542.728260328628</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>4747.750741110838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>988.7065213774116</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C37" t="n">
-        <v>819.7703384495047</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D37" t="n">
-        <v>675.2581065529675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.499100520942</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.7065213774116</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="38">
@@ -7163,43 +7165,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977054</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N39" t="n">
-        <v>2474.454647241204</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O39" t="n">
-        <v>2474.454647241204</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2474.454647241204</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.6878657662453</v>
+        <v>4147.731977682392</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>3978.795794754485</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>3828.679155342149</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>3828.679155342149</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>3828.679155342149</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="W40" t="n">
-        <v>731.3177283550796</v>
+        <v>4147.731977682392</v>
       </c>
       <c r="X40" t="n">
-        <v>731.3177283550796</v>
+        <v>4147.731977682392</v>
       </c>
       <c r="Y40" t="n">
-        <v>559.336330596485</v>
+        <v>4147.731977682392</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,61 +7399,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028559</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1608.660951743751</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.437184265811</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O42" t="n">
-        <v>2135.190598349773</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3888.981946387242</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C43" t="n">
-        <v>3888.981946387242</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D43" t="n">
-        <v>3738.865306974907</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E43" t="n">
-        <v>3738.865306974907</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F43" t="n">
-        <v>3738.865306974907</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1486.273997302639</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1486.273997302639</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1262.488582092145</v>
       </c>
       <c r="U43" t="n">
-        <v>4660.934562929845</v>
+        <v>973.359943305703</v>
       </c>
       <c r="V43" t="n">
-        <v>4406.250074723958</v>
+        <v>973.359943305703</v>
       </c>
       <c r="W43" t="n">
-        <v>4406.250074723958</v>
+        <v>973.359943305703</v>
       </c>
       <c r="X43" t="n">
-        <v>4178.260523825941</v>
+        <v>745.3703924076857</v>
       </c>
       <c r="Y43" t="n">
-        <v>3957.467944682411</v>
+        <v>524.5778132641556</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7725,19 +7727,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1738.457251193969</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N45" t="n">
-        <v>1738.457251193969</v>
+        <v>2159.167598412666</v>
       </c>
       <c r="O45" t="n">
         <v>2407.921012496628</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1453.239980467896</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1453.239980467896</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1453.239980467896</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>1164.111341681454</v>
       </c>
       <c r="V46" t="n">
-        <v>545.9992215018333</v>
+        <v>909.4268534755672</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>620.0096834386067</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>150.0424406143226</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>208.4667329368937</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>235.9572324486932</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.4166885228179</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,7 +10205,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10445,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>405.1643585749143</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.2332620668998</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>244.2385421467088</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>62.61207644213175</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>77.97755138176302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>158.6705219005898</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>196.9175123244016</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>26.08905410318448</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>143.1555762701031</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>73.21863920366121</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.7763452073245105</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>77.72720307101406</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>54.45066026879972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.562088905203098</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>86.65450490991958</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>262.4411076333833</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>161.2237199094815</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>192.3581855871782</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>51.93911361810761</v>
+        <v>122.9678745620449</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.548363440640571</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>233.5038426989142</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>59.99811848396796</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.32306957108619</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.0308418697201</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>97.44850188108217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>64.74482521468641</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>124.4198406026822</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.94856722</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
@@ -26320,37 +26322,37 @@
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147619</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="K2" t="n">
         <v>723403.760514761</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.760514761</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147609</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.760514761</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
         <v>723403.7605147611</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,13 +26426,13 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905757982</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905757998</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
@@ -26439,25 +26441,25 @@
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758771</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="K4" t="n">
-        <v>787.793690575843</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905759314</v>
-      </c>
       <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="N4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411093</v>
+        <v>-52422.45933411065</v>
       </c>
       <c r="C6" t="n">
         <v>537545.4198804337</v>
@@ -26528,37 +26530,37 @@
         <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985724</v>
+        <v>105468.6043985723</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754687</v>
+        <v>630628.6408754694</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.6408754685</v>
+        <v>630628.6408754692</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.6408754686</v>
+        <v>630628.640875469</v>
       </c>
       <c r="I6" t="n">
-        <v>630628.6408754684</v>
+        <v>630628.6408754688</v>
       </c>
       <c r="J6" t="n">
         <v>454205.4216828761</v>
       </c>
       <c r="K6" t="n">
-        <v>630628.6408754688</v>
+        <v>630628.6408754685</v>
       </c>
       <c r="L6" t="n">
-        <v>630628.6408754684</v>
+        <v>630628.6408754686</v>
       </c>
       <c r="M6" t="n">
-        <v>495827.6256416315</v>
+        <v>495827.6256416313</v>
       </c>
       <c r="N6" t="n">
-        <v>630628.6408754688</v>
+        <v>630628.6408754692</v>
       </c>
       <c r="O6" t="n">
-        <v>630628.6408754687</v>
+        <v>630628.6408754686</v>
       </c>
       <c r="P6" t="n">
         <v>630628.6408754686</v>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>159.6828976425805</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.5594183903697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>276.4914336283279</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>98.94636677641759</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>262.9821018140711</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>46.33156273839716</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.88160298674455</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>120.168123766492</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>236.3727633077391</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>345.6143068222208</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>40.27160176557715</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29272,10 +29274,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>5.631541210371732e-14</v>
       </c>
     </row>
     <row r="27">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>177.5954266578339</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31284,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>295.8937600219463</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>18.84687933878899</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32311,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>235.6889786885679</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>340.8546090773496</v>
       </c>
       <c r="N21" t="n">
-        <v>110.222701848423</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>169.7583676638506</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>418.3130979059476</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,25 +33028,25 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>308.5511571912562</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33266,16 +33268,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>116.1540744796866</v>
       </c>
       <c r="N30" t="n">
-        <v>136.4103179062033</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33284,7 +33286,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33506,13 +33508,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.7582714835083</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>423.8794571627546</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
@@ -33664,10 +33666,10 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
         <v>562.4526372540886</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33971,25 +33973,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34138,13 +34140,13 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565511</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34220,13 +34222,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>411.9237651359186</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34390,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.0697047810465</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,13 +34456,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>131.1073731820381</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>376.0678719026863</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>428.8615014901189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490677</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>11.48806083444844</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>547.1598348542313</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686871</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>490.8304351780018</v>
+        <v>270.1129541710741</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>97.13459890869369</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>93.82319852667493</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>664.4256389053312</v>
       </c>
       <c r="N21" t="n">
-        <v>458.2233641086432</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>402.0443331874356</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>669.5791727382327</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>147.3268674777245</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>174.5767497769259</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>439.7251043076682</v>
       </c>
       <c r="N30" t="n">
-        <v>484.4109801664235</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36932,7 +36934,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7589337437286</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>675.1455319950397</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37312,10 +37314,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37391,19 +37393,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>273.822646491581</v>
       </c>
       <c r="O36" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>114.2462948519739</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>102.1045082246905</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.6251092272059</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,13 +37870,13 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>280.5820530525853</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>285.0709663132877</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,13 +38104,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>454.6784030100197</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>724.0685341629065</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3989213.519729509</v>
+        <v>3982196.504837798</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482279.9336046273</v>
+        <v>543631.0711370648</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7553324.360385051</v>
+        <v>7553324.36038505</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3709516818921</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>48.85466508935351</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883158</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5766315601734</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>150.8020682067238</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>88.309329815553</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>47.14167849255889</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>68.16986319857421</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>234.4970761400735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385032</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>62.87703915779939</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>190.9302213632581</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>143.3674220664879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V19" t="n">
-        <v>178.9190041201668</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>70.8882699471983</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>217.9854721531862</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>24.08189070320769</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.269848553896072</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>22.45317346088634</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>53.01915563767676</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>106.4954499794096</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.51585052271063</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>45.21952718910637</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.312047941847</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>898.349531001435</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>898.349531001435</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
         <v>632.3182666762915</v>
@@ -4327,7 +4327,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2429.166277435383</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>2098.103390091812</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202927</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941847</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.312047941847</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753676</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890065</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504894</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600563</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>471.403877728658</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>471.403877728658</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>471.403877728658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483.703156598057</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="C5" t="n">
-        <v>1483.703156598057</v>
+        <v>164.0132298790103</v>
       </c>
       <c r="D5" t="n">
-        <v>1483.703156598057</v>
+        <v>164.0132298790103</v>
       </c>
       <c r="E5" t="n">
-        <v>1097.914903999813</v>
+        <v>164.0132298790103</v>
       </c>
       <c r="F5" t="n">
-        <v>686.9289992102051</v>
+        <v>157.0677291298069</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>143.1443250683978</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>143.1443250683978</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>396.3638799638587</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>248.4507863814656</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>101.5608388835552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.5755868835438</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>919.5755868835438</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>919.5755868835438</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>533.7873342852995</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>122.8014294956919</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835438</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5032,31 +5032,31 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5065,28 +5065,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7081686256436</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L12" t="n">
-        <v>368.6712744939928</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1137.039420886455</v>
+        <v>1131.836193506796</v>
       </c>
       <c r="N12" t="n">
-        <v>1481.560076524072</v>
+        <v>1476.356849144413</v>
       </c>
       <c r="O12" t="n">
-        <v>2023.248313029761</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P12" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.8631874464247</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185178</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185178</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
         <v>208.7516828383384</v>
@@ -5196,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.408996269827</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>835.2803574833854</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="V13" t="n">
-        <v>835.2803574833854</v>
+        <v>1209.787631771462</v>
       </c>
       <c r="W13" t="n">
-        <v>545.8631874464247</v>
+        <v>920.3704617345009</v>
       </c>
       <c r="X13" t="n">
-        <v>545.8631874464247</v>
+        <v>727.5116522766643</v>
       </c>
       <c r="Y13" t="n">
-        <v>545.8631874464247</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5299,28 +5299,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.449480746877</v>
+        <v>1509.99881391881</v>
       </c>
       <c r="N15" t="n">
-        <v>1835.861059011027</v>
+        <v>1854.519469556428</v>
       </c>
       <c r="O15" t="n">
         <v>2103.272883640391</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005286</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>865.052043842076</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>637.0624929440587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.2699138005286</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>2745.388427942955</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L18" t="n">
-        <v>3359.285497699844</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M18" t="n">
-        <v>3452.170464241252</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>3796.69111987887</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962832</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.74515569858</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>983.329485121187</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>693.9123150842264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>754.9984739765637</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4015.784305185132</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3846.848122257225</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.243809179247</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365623</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365623</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>4236.576884328662</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4236.576884328662</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>4015.784305185132</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>779.5615433385055</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1099.896862868207</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1429.75949053224</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.642871543091</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1278.728924948624</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>989.6002861621822</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>989.6002861621822</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>989.6002861621822</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>761.6107352641649</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>540.8181561206347</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>243.0706902632331</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>653.9609591077458</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>883.924064976095</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1204.259384505797</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1548.780040143415</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4208.336137767206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4039.399954839299</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>4460.650830789676</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>4460.650830789676</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
-        <v>4436.325688665223</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>4208.336137767206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.336137767206</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6466,7 +6466,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>779.5615433385053</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1214.889396603097</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>827.9306256062542</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>658.9944426783474</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>508.8778032660116</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>360.9647096836185</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>214.0747621857081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.579090436494</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>1009.579090436494</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>779.5615433385053</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1099.896862868207</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1444.417518505825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3969.364880169634</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3800.428697241727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3800.428697241727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3800.428697241727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929846</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>4371.805924143404</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>4371.805924143404</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>4371.805924143404</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4371.805924143404</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4151.013344999874</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1288.32563221405</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>874.927113122792</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>620.2426249169051</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>566.6879222525852</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7174,22 +7174,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181233</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>222.5746515181233</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4147.731977682392</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3978.795794754485</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3828.679155342149</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3828.679155342149</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3828.679155342149</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4437.149147719352</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>4437.149147719352</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>4147.731977682392</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4147.731977682392</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>4147.731977682392</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231263</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1442.339749591389</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.860405229007</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2035.613819312969</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>524.5778132641556</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1486.273997302639</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1486.273997302639</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1262.488582092145</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>973.359943305703</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>973.359943305703</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>973.359943305703</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>745.3703924076857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>524.5778132641556</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,43 +7633,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047985</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L45" t="n">
         <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1442.339749591389</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2159.167598412666</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2407.921012496628</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1453.239980467896</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1453.239980467896</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.239980467896</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.111341681454</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>909.4268534755672</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>620.0096834386067</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9029,7 +9029,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>235.9572324486932</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,16 +9494,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>105.4166885228179</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,22 +10673,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>405.1643585749143</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>244.2385421467088</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>77.97755138176302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,10 +11390,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>158.6705219005898</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>34.77943402577901</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>143.1555762701031</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V19" t="n">
-        <v>73.21863920366121</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>77.72720307101406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.562088905203098</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>262.4411076333833</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>161.2237199094815</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>122.9678745620449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>233.5038426989142</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>59.99811848396796</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.44850188108217</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>64.74482521468641</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645197.94856722</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147619</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147613</v>
@@ -26337,25 +26337,25 @@
         <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="K2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="K2" t="n">
-        <v>723403.760514761</v>
-      </c>
       <c r="L2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757982</v>
+        <v>787.7936905758115</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758771</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758286</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758693</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,16 +26499,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411065</v>
+        <v>-52422.45933411078</v>
       </c>
       <c r="C6" t="n">
         <v>537545.4198804337</v>
       </c>
       <c r="D6" t="n">
-        <v>537545.4198804338</v>
+        <v>537545.4198804339</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985723</v>
+        <v>104494.0131388506</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754694</v>
+        <v>629654.0496157473</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.6408754692</v>
+        <v>629654.0496157471</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.640875469</v>
+        <v>629654.0496157472</v>
       </c>
       <c r="I6" t="n">
-        <v>630628.6408754688</v>
+        <v>629654.0496157472</v>
       </c>
       <c r="J6" t="n">
-        <v>454205.4216828761</v>
+        <v>453230.8304231544</v>
       </c>
       <c r="K6" t="n">
-        <v>630628.6408754685</v>
+        <v>629654.0496157472</v>
       </c>
       <c r="L6" t="n">
-        <v>630628.6408754686</v>
+        <v>629654.0496157471</v>
       </c>
       <c r="M6" t="n">
-        <v>495827.6256416313</v>
+        <v>494853.0343819099</v>
       </c>
       <c r="N6" t="n">
-        <v>630628.6408754692</v>
+        <v>629654.0496157471</v>
       </c>
       <c r="O6" t="n">
-        <v>630628.6408754686</v>
+        <v>629654.0496157471</v>
       </c>
       <c r="P6" t="n">
-        <v>630628.6408754686</v>
+        <v>629654.0496157471</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541008</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5594183903697</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>202.3695024189358</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>98.94636677641759</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>262.9821018140711</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>63.62198642930825</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.168123766492</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>345.6143068222208</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858218</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>17.64056718375451</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29274,10 +29274,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.631541210371732e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949335</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>177.5954266578339</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31843,28 +31843,28 @@
         <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724849</v>
+        <v>194.5877923618777</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>295.8937600219463</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677467</v>
@@ -32077,22 +32077,22 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>68.34248921961716</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>18.84687933878899</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.067822345855</v>
@@ -32101,7 +32101,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32323,19 +32323,19 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,7 +32472,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041489</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,34 +32554,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>340.8546090773496</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,37 +32788,37 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O24" t="n">
-        <v>418.3130979059476</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,34 +33022,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>116.1540744796866</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,34 +33496,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O33" t="n">
-        <v>423.8794571627546</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,34 +33733,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,34 +33970,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565511</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,40 +34362,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,34 +34444,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>376.0678719026863</v>
+        <v>392.6063366508801</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323549</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8615014901189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>518.1588221898593</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>547.1598348542313</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P12" t="n">
-        <v>525.556183571462</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>391.9135190475988</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>270.1129541710741</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714619</v>
@@ -35971,19 +35971,19 @@
         <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>93.82319852667493</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>664.4256389053312</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O24" t="n">
-        <v>669.5791727382327</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>147.3268674777245</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>439.7251043076682</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O33" t="n">
-        <v>675.1455319950397</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>273.822646491581</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>102.1045082246905</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>285.0709663132877</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>724.0685341629065</v>
+        <v>740.6069989111003</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3982196.504837798</v>
+        <v>3987135.76768683</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>543631.0711370648</v>
+        <v>543631.0711370646</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7553324.36038505</v>
+        <v>7553324.360385051</v>
       </c>
     </row>
     <row r="11">
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>210.8245828721996</v>
       </c>
       <c r="U2" t="n">
-        <v>48.85466508935351</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385032</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>83.07345006396076</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>190.9302213632581</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719512</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>51.44029960352517</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>174.7430637258776</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>183.4653217847143</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4354,13 +4354,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2429.166277435383</v>
       </c>
       <c r="U2" t="n">
         <v>2429.166277435383</v>
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753676</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164661</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>773.500346212138</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4515,10 +4515,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>308.6274700262513</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
         <v>308.6274700262513</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,22 +4828,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,16 +5062,16 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5108,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
         <v>618.8589595388348</v>
       </c>
       <c r="M12" t="n">
-        <v>1131.836193506796</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N12" t="n">
-        <v>1476.356849144413</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O12" t="n">
         <v>2145.820610447073</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.8631874464246</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771462</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771462</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345009</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X13" t="n">
-        <v>727.5116522766643</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.5116522766643</v>
+        <v>644.1080300429513</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047986</v>
+        <v>465.3907418918573</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061688</v>
+        <v>1079.287811648746</v>
       </c>
       <c r="M15" t="n">
-        <v>1509.99881391881</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.519469556428</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1440.770281663976</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1240.850271579528</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,19 +5527,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,19 +5591,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047986</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061688</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5837,7 +5837,7 @@
         <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M21" t="n">
         <v>1890.372576454149</v>
@@ -5913,10 +5913,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028587</v>
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,10 +6065,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K24" t="n">
         <v>508.1073603047986</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>330.825454879945</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="26">
@@ -6238,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6414,16 +6414,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6700,13 +6700,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,10 +7013,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K36" t="n">
         <v>508.1073603047986</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7198,22 +7198,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126483</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7438,10 +7438,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336716</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7830,22 +7830,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>96.75853011797653</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>34.77943402577901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>52.3998233988052</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>103.0576765518768</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338525</v>
+        <v>174.269355785512</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>50.96659166315953</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645197.9485672199</v>
+        <v>645197.9485672198</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
@@ -26322,22 +26322,22 @@
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="F2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
         <v>723403.7605147613</v>
@@ -26355,7 +26355,7 @@
         <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147613</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758115</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758063</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758694</v>
@@ -26450,10 +26450,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758011</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758064</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411078</v>
+        <v>-52422.45933411067</v>
       </c>
       <c r="C6" t="n">
         <v>537545.4198804337</v>
@@ -26530,40 +26530,40 @@
         <v>537545.4198804339</v>
       </c>
       <c r="E6" t="n">
-        <v>104494.0131388506</v>
+        <v>105371.1452726006</v>
       </c>
       <c r="F6" t="n">
-        <v>629654.0496157473</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="G6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="H6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="I6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494968</v>
       </c>
       <c r="J6" t="n">
-        <v>453230.8304231544</v>
+        <v>454107.9625569038</v>
       </c>
       <c r="K6" t="n">
-        <v>629654.0496157472</v>
+        <v>630531.1817494967</v>
       </c>
       <c r="L6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="M6" t="n">
-        <v>494853.0343819099</v>
+        <v>495730.1665156595</v>
       </c>
       <c r="N6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="O6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="P6" t="n">
-        <v>629654.0496157471</v>
+        <v>630531.1817494967</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541005</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.623737485458236</v>
       </c>
       <c r="U2" t="n">
-        <v>202.3695024189358</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>21.8741453697219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>98.95375469339393</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-1.079005087341609e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.192691925063225e-12</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.079005087341609e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31129,13 +31129,13 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949335</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31150,7 +31150,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,31 +31849,31 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>194.5877923618777</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855529</v>
+        <v>166.9893280749465</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361494</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>245.2687781552869</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>68.34248921961716</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32095,7 +32095,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6063366508798</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508801</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O26" t="n">
         <v>562.4526372540887</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104651</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323549</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
@@ -35497,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>518.1588221898593</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.226021517838</v>
+        <v>418.2554029072315</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>371.8925761935065</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>391.9135190475988</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35743,7 +35743,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>740.6069989111</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111003</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951473</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
